--- a/data/KCNQ1/1. Raw/KCNQ1_concise_UpdatedGnomAD.xlsx
+++ b/data/KCNQ1/1. Raw/KCNQ1_concise_UpdatedGnomAD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\gene-VUS-prediction\data\KCNQ1\1. Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD0733D-E766-4142-94A6-178613E3B446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A984E406-4D8E-4BBC-A9E0-4D01812E7026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="2" activeTab="4" xr2:uid="{ABBA9FBB-02E7-CA49-A142-658C5C2DF7EC}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="2" activeTab="3" xr2:uid="{ABBA9FBB-02E7-CA49-A142-658C5C2DF7EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Benign_Likely Benign" sheetId="1" r:id="rId1"/>
@@ -1937,24 +1937,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1969,11 +1957,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10386,10 +10372,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CF7569-8A6D-884C-A27F-6C9BDE3B3298}">
-  <dimension ref="A1:C690"/>
+  <dimension ref="A1:C678"/>
   <sheetViews>
-    <sheetView topLeftCell="A603" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C684" sqref="C684"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -10400,20 +10386,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3">
@@ -17849,48 +17835,6 @@
       </c>
       <c r="C678">
         <v>0</v>
-      </c>
-    </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B679" s="2"/>
-    </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B680" s="2"/>
-    </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B681" s="2"/>
-    </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B682" s="2"/>
-    </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B683" s="2"/>
-    </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B684" s="2"/>
-    </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B685" s="2"/>
-    </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B686" s="2"/>
-    </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B687" s="2">
-        <v>1.086412127984815E-5</v>
-      </c>
-    </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B688" s="2"/>
-    </row>
-    <row r="689" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B689" s="2">
-        <v>1.5789419821373923E-4</v>
-      </c>
-    </row>
-    <row r="690" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B690" s="3">
-        <v>2.6358202788174485</v>
       </c>
     </row>
   </sheetData>
@@ -17910,7 +17854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E36D1E9-F1B2-5C49-9DBC-3450F8D0F5F8}">
   <dimension ref="A1:B677"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
